--- a/biology/Médecine/Centre_hospitalier_universitaire_en_France/Centre_hospitalier_universitaire_en_France.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_en_France/Centre_hospitalier_universitaire_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, les centres hospitaliers régionaux et universitaires (CHR&amp;U)[1], plus couramment appelés centres hospitaliers et universitaires (CHU)[2], sont des centres hospitaliers régionaux (CHR), c'est-à-dire des établissements publics de santé, ayant passé une convention avec une université, ou éventuellement avec plusieurs universités. Ils ont une triple mission de soins, d'enseignement et de recherche. Ces structures sont régies par des dispositions spécifiques du code de la santé publique et du code de l'éducation. Trois d'entre elles bénéficient d'un statut et d'un fonctionnement particuliers[réf. nécessaire], par exemple au niveau de leurs instances de décision :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les centres hospitaliers régionaux et universitaires (CHR&amp;U), plus couramment appelés centres hospitaliers et universitaires (CHU), sont des centres hospitaliers régionaux (CHR), c'est-à-dire des établissements publics de santé, ayant passé une convention avec une université, ou éventuellement avec plusieurs universités. Ils ont une triple mission de soins, d'enseignement et de recherche. Ces structures sont régies par des dispositions spécifiques du code de la santé publique et du code de l'éducation. Trois d'entre elles bénéficient d'un statut et d'un fonctionnement particuliers[réf. nécessaire], par exemple au niveau de leurs instances de décision :
 Assistance publique - Hôpitaux de Paris ;
 Assistance publique - Hôpitaux de Marseille ;
 Hospices civils de Lyon.
@@ -514,9 +526,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils ont été créés par l'ordonnance 58-1373 du 30 décembre 1958 ("Ordonnances Debré") qui prévoit dans son article 1er : « Dans les villes sièges de faculté de médecine, de facultés mixtes de médecine et de pharmacie, ou d'écoles nationales de médecine et de pharmacie, les facultés ou écoles et les centres hospitaliers organisent conjointement l'ensemble de leurs services en centres de soins, d'enseignement et de recherche, conformément aux dispositions de la présente ordonnance. Ces centres prennent le nom de centres hospitaliers et universitaires »[3]. L'ordonnance a été préparée par le Comité interministériel présidée par le professeur Robert Debré. Les CHU ont servi de modèle à la création de centres hospitaliers universitaires vétérinaires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont été créés par l'ordonnance 58-1373 du 30 décembre 1958 ("Ordonnances Debré") qui prévoit dans son article 1er : « Dans les villes sièges de faculté de médecine, de facultés mixtes de médecine et de pharmacie, ou d'écoles nationales de médecine et de pharmacie, les facultés ou écoles et les centres hospitaliers organisent conjointement l'ensemble de leurs services en centres de soins, d'enseignement et de recherche, conformément aux dispositions de la présente ordonnance. Ces centres prennent le nom de centres hospitaliers et universitaires ». L'ordonnance a été préparée par le Comité interministériel présidée par le professeur Robert Debré. Les CHU ont servi de modèle à la création de centres hospitaliers universitaires vétérinaires.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Personnel médical hospitalier et universitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La création des centres hospitaliers universitaires a permis l'émergence d'un statut mixte hospitalier et universitaire, se caractérisant par plusieurs corps médicaux dont la nomination est conjointe entre hôpital et université. Employés par leur université, et nommés sur un emploi hospitalier et universitaire, ils sont rattachés à un service hospitalier et un département universitaire, le plus souvent au sein d'un laboratoire de recherche. Les missions des personnels hospitaliers et universitaires sont triples : soins, enseignement et recherche ; la valence entre leurs différentes missions n'étant pas précisée par les textes.
 Parmi ces personnels dits bi-appartenants, on distingue :
@@ -584,25 +600,201 @@
           <t>Un rôle régional</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les CHU ont sur le plan sanitaire une vocation régionale et jouent un rôle premier dans la planification régionale. Il en existait un par région suivant le découpage administratif en vigueur de 1970 à 2015. Faisaient exception la région Rhône-Alpes avec 3 CHU (Grenoble, Lyon et Saint-Étienne) et les régions Provence-Alpes-Côte d'Azur (Marseille et Nice), Pays de la Loire (Angers et Nantes), Languedoc-Roussillon (Montpellier et Nîmes), Bretagne (Brest et Rennes) avec chacune deux CHU. En revanche, la Corse n'en compte aucun.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les CHU ont sur le plan sanitaire une vocation régionale et jouent un rôle premier dans la planification régionale. Il en existait un par région suivant le découpage administratif en vigueur de 1970 à 2015. Faisaient exception la région Rhône-Alpes avec 3 CHU (Grenoble, Lyon et Saint-Étienne) et les régions Provence-Alpes-Côte d'Azur (Marseille et Nice), Pays de la Loire (Angers et Nantes), Languedoc-Roussillon (Montpellier et Nîmes), Bretagne (Brest et Rennes) avec chacune deux CHU. En revanche, la Corse n'en compte aucun.
 Les CHU sont décomposés en plusieurs sites, bénéficiant d'un plateau technique et biologique lourd leur permettant de proposer une offre de soins complète et d'atteindre une taille critique.
-Actes spécifiques
-Les actes pratiqués uniquement dans les CHU représentent 5,5 % seulement de leur activité de médecine, chirurgie et obstétrique[4].
-Prérogatives des CHU
-Les CHU exercent des missions supplémentaires par rapport à un centre hospitalier :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Un rôle régional</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Actes spécifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les actes pratiqués uniquement dans les CHU représentent 5,5 % seulement de leur activité de médecine, chirurgie et obstétrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Un rôle régional</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prérogatives des CHU</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les CHU exercent des missions supplémentaires par rapport à un centre hospitalier :
 l'enseignement et la formation des étudiants médicaux et paramédicaux organisées par l'Université ;
 la recherche qu'elle soit clinique, fondamentale ou translationnelle pilotée par l'Université, l'INSERM ou le CNRS
 l'activité de recours et de référence, concernant les maladies rares.
-certaines missions d'intérêt général (urgences, centre antipoison, etc.)
-L'enseignement et la recherche
-Les CHU sont le terrain de stage et d'exercice d'un certain nombre d'étudiants médecins, chirurgiens-dentistes, sages-femmes et pharmaciens en cours de formation, salariés de leur centre hospitalier universitaire de rattachement. En médecine, l'activité courante de soins est gérée par un étudiant en fin de formation, appelé interne sous la supervision d'un médecin titulaire. Les étudiants de deuxième cycle sont eux qualifiés d'externes ou étudiants hospitaliers.
+certaines missions d'intérêt général (urgences, centre antipoison, etc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Un rôle régional</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'enseignement et la recherche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les CHU sont le terrain de stage et d'exercice d'un certain nombre d'étudiants médecins, chirurgiens-dentistes, sages-femmes et pharmaciens en cours de formation, salariés de leur centre hospitalier universitaire de rattachement. En médecine, l'activité courante de soins est gérée par un étudiant en fin de formation, appelé interne sous la supervision d'un médecin titulaire. Les étudiants de deuxième cycle sont eux qualifiés d'externes ou étudiants hospitaliers.
 Les études d'infirmier, d'aide-soignant, de manipulateur radio et d'autres professions paramédicales impliquent également la réalisation de stages hospitaliers, réalisés entre autres au sein des centres hospitaliers universitaires.
-Comme expliqué précédemment, certains médecins hospitaliers sont également enseignants-chercheurs dans une université.
-L'activité de recours
-L'activité de recours se justifie par une offre de soins régionale complète, impliquant médecins libéraux, salariés et hospitaliers. Les CHU se caractérisent par un plateau technique et biologique plus développé, et des services dont la tendance est à la sur-spécialisation. Ainsi, un patient hospitalisé au sein d'un service de CHU doit théoriquement y avoir été adressé par son médecin référent, quel que soit son mode d'exercice (public, salarié, libéral). Les patients accueillis en CHU sont ainsi préférentiellement en impasse diagnostique ou thérapeutique. Ils peuvent également être traités dans le cadre de maladies rares, pour lequel le CHU est étiqueté centre de référence. L'activité de soins implique généralement des interlocuteurs de santé différents, nécessitant une coordination dans le parcours de soins.
-Liste[5]
+Comme expliqué précédemment, certains médecins hospitaliers sont également enseignants-chercheurs dans une université.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Un rôle régional</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'activité de recours</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité de recours se justifie par une offre de soins régionale complète, impliquant médecins libéraux, salariés et hospitaliers. Les CHU se caractérisent par un plateau technique et biologique plus développé, et des services dont la tendance est à la sur-spécialisation. Ainsi, un patient hospitalisé au sein d'un service de CHU doit théoriquement y avoir été adressé par son médecin référent, quel que soit son mode d'exercice (public, salarié, libéral). Les patients accueillis en CHU sont ainsi préférentiellement en impasse diagnostique ou thérapeutique. Ils peuvent également être traités dans le cadre de maladies rares, pour lequel le CHU est étiqueté centre de référence. L'activité de soins implique généralement des interlocuteurs de santé différents, nécessitant une coordination dans le parcours de soins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Un rôle régional</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste[5]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Il existe 31 CHU en France :
 CHU d'Amiens
 CHU d'Angers
